--- a/CIS Updates/Flag Updates.xlsx
+++ b/CIS Updates/Flag Updates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Peter Camporeale\Documents\Research\CERN ATLAS 2022-2023\Tile-CIS-group\CIS Updates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10D7A08-D2D4-4340-8232-AEB5C70E1A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA784C94-A95D-41BB-A72E-4B9BD4DC115F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{51C3CB71-5024-4996-BCC0-478F61F63DFE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7500" windowHeight="6000" xr2:uid="{51C3CB71-5024-4996-BCC0-478F61F63DFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,13 +46,13 @@
     <t>LBA_m52_c01_lowgain</t>
   </si>
   <si>
-    <t>LBC_m44_c35_highgain</t>
-  </si>
-  <si>
     <t>LBC_m10_c37_highgain</t>
   </si>
   <si>
     <t>LBC_m63_c45_highgain</t>
+  </si>
+  <si>
+    <t>LBC_m44_c34_highgain</t>
   </si>
 </sst>
 </file>
@@ -450,7 +450,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -468,7 +468,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -476,10 +476,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
